--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Library/CloudStorage/Dropbox/2 Business/1 Datons/2 Areas/Courses/ESIOS-API/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76DF5C-0379-A941-BEB2-EE20BD8AE335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E42CC4-3E90-254E-AE6D-900B50374961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24000" windowHeight="37900" xr2:uid="{EF14A9B2-F1BC-4B69-A46C-AC0611DBE569}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1416,9 @@
         <v>154</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1429,9 +1431,7 @@
       <c r="D4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
       <c r="D5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1462,10 +1462,10 @@
       <c r="D6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -1506,10 +1506,10 @@
       <c r="D9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Library/CloudStorage/Dropbox/2 Business/1 Datons/2 Areas/Courses/ESIOS-API/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E42CC4-3E90-254E-AE6D-900B50374961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6E732-5A5F-754C-8B2A-E35ADA0A8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24000" windowHeight="37900" xr2:uid="{EF14A9B2-F1BC-4B69-A46C-AC0611DBE569}"/>
   </bookViews>

--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Library/CloudStorage/Dropbox/2 Business/1 Datons/2 Areas/Courses/ESIOS-API/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6E732-5A5F-754C-8B2A-E35ADA0A8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4FA359-390E-7C49-90CE-428A8165E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24000" windowHeight="37900" xr2:uid="{EF14A9B2-F1BC-4B69-A46C-AC0611DBE569}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="162">
   <si>
     <t>Practice Dataset</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Exam: Visualize multiple energy prices</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -900,15 +903,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}" name="Table3" displayName="Table3" ref="A2:F9" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}" name="Table3" displayName="Table3" ref="A2:F10" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A2:F9" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EF068334-46E1-414B-9F46-25C325E14551}" name="Chapter" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{EF068334-46E1-414B-9F46-25C325E14551}" name="Chapter" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
     <tableColumn id="9" xr3:uid="{9AA6F2B0-4527-CC43-918A-7C7CF6D1DD88}" name="Lesson" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="2" xr3:uid="{D69B8014-BD05-8E48-93A5-69A89077AAA6}" name="Name" dataDxfId="38" totalsRowDxfId="37"/>
     <tableColumn id="3" xr3:uid="{90A968D7-496C-4847-96C2-75BD5DB00367}" name="Topic" dataDxfId="36" totalsRowDxfId="35"/>
     <tableColumn id="5" xr3:uid="{E88D21AC-F3F6-2D4E-9195-02E08A0599E5}" name="Provided" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AB6DF7F3-F274-8444-BE25-D09711DB690D}" name="Raw" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{AB6DF7F3-F274-8444-BE25-D09711DB690D}" name="Raw" totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1355,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942A3B40-E552-4595-9D29-86783CDE0D80}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1510,6 +1513,18 @@
         <v>9</v>
       </c>
       <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <f>SUBTOTAL(103,Table3[Raw])</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
